--- a/data/trans_orig/P2A_fisi_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C46F27A-5AFF-4C26-883F-5BEF985E5805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{360E5A7D-ED89-4C55-BE62-6894334B3400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D96C0B4-033A-41FE-A380-FFFB23C5BB0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5FC1BBC6-F8B2-4013-9618-C04E4324CF7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="411">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>2,87%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,13%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>5,11%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>94,89%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,1111 +191,1087 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
   </si>
   <si>
     <t>88,05%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
     <t>87,09%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
   </si>
   <si>
     <t>18,64%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>76,89%</t>
   </si>
   <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>81,36%</t>
   </si>
   <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>10,79%</t>
+    <t>10,82%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>89,21%</t>
+    <t>89,18%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E8BFAA-7F38-4F2D-875B-F3FFA43BFD66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158750A3-EC69-4E86-9081-8547927E5AEC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2025,10 +1995,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2013,13 @@
         <v>562486</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>540</v>
@@ -2058,13 +2028,13 @@
         <v>547357</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1101</v>
@@ -2073,13 +2043,13 @@
         <v>1109843</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,7 +2105,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2147,13 +2117,13 @@
         <v>53011</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2162,13 +2132,13 @@
         <v>55863</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -2177,13 +2147,13 @@
         <v>108874</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2168,13 @@
         <v>908789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>857</v>
@@ -2213,13 +2183,13 @@
         <v>912530</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>1703</v>
@@ -2228,13 +2198,13 @@
         <v>1821319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2260,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2302,13 +2272,13 @@
         <v>39429</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -2317,13 +2287,13 @@
         <v>40573</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -2332,13 +2302,13 @@
         <v>80003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2323,13 @@
         <v>639080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -2368,13 +2338,13 @@
         <v>643268</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1260</v>
@@ -2383,13 +2353,13 @@
         <v>1282347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,7 +2415,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2457,13 +2427,13 @@
         <v>51696</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -2472,13 +2442,13 @@
         <v>79898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>129</v>
@@ -2487,13 +2457,13 @@
         <v>131595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2478,13 @@
         <v>890526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>922</v>
@@ -2523,13 +2493,13 @@
         <v>958714</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1862</v>
@@ -2538,13 +2508,13 @@
         <v>1849239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2582,13 @@
         <v>163611</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>198</v>
@@ -2627,13 +2597,13 @@
         <v>209674</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>360</v>
@@ -2642,13 +2612,13 @@
         <v>373284</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,16 +2630,16 @@
         <v>3052</v>
       </c>
       <c r="D20" s="7">
-        <v>3112932</v>
+        <v>3112933</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>3099</v>
@@ -2678,28 +2648,28 @@
         <v>3169524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>6151</v>
       </c>
       <c r="N20" s="7">
-        <v>6282457</v>
+        <v>6282456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,7 +2681,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2741,7 +2711,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2755,7 +2725,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E4C647-93A3-496E-A0CA-C78EEB9B0316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3F758B-10F3-4F91-BEAB-FAF079882A56}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2793,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,13 +2870,13 @@
         <v>7362</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -2915,13 +2885,13 @@
         <v>13245</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -2930,13 +2900,13 @@
         <v>20607</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2921,13 @@
         <v>108403</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
@@ -2966,13 +2936,13 @@
         <v>98660</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7">
         <v>201</v>
@@ -2981,13 +2951,13 @@
         <v>207063</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3025,13 @@
         <v>32974</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -3070,13 +3040,13 @@
         <v>42373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -3085,13 +3055,13 @@
         <v>75347</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3076,13 @@
         <v>554730</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -3121,13 +3091,13 @@
         <v>542772</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>1032</v>
@@ -3136,13 +3106,13 @@
         <v>1097502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +3168,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3210,13 +3180,13 @@
         <v>82150</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -3225,13 +3195,13 @@
         <v>102689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -3240,13 +3210,13 @@
         <v>184839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3231,13 @@
         <v>935797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
         <v>847</v>
@@ -3276,13 +3246,13 @@
         <v>929495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>1710</v>
@@ -3291,13 +3261,13 @@
         <v>1865292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,7 +3323,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3365,13 +3335,13 @@
         <v>56294</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -3380,13 +3350,13 @@
         <v>64707</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -3395,13 +3365,13 @@
         <v>121000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3386,13 @@
         <v>701329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>649</v>
@@ -3431,13 +3401,13 @@
         <v>712467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>1286</v>
@@ -3446,13 +3416,13 @@
         <v>1413797</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,7 +3478,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3520,13 +3490,13 @@
         <v>71725</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -3535,13 +3505,13 @@
         <v>100339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -3550,13 +3520,13 @@
         <v>172064</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3541,13 @@
         <v>876014</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>909</v>
@@ -3586,13 +3556,13 @@
         <v>951562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>1755</v>
@@ -3601,13 +3571,13 @@
         <v>1827576</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3645,13 @@
         <v>250504</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>296</v>
@@ -3690,13 +3660,13 @@
         <v>323353</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>523</v>
@@ -3705,13 +3675,13 @@
         <v>573858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3696,13 @@
         <v>3176275</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>3002</v>
@@ -3741,13 +3711,13 @@
         <v>3234956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>5984</v>
@@ -3756,13 +3726,13 @@
         <v>6411230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3788,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3839,7 +3809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF3F11F-3099-41AD-A79E-09514E8ADBEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D424AF3-E5FE-4FA0-B0C2-60C38503D844}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,7 +3826,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,13 +3933,13 @@
         <v>9341</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3978,13 +3948,13 @@
         <v>5286</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3993,13 +3963,13 @@
         <v>14628</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +3984,13 @@
         <v>107205</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>111</v>
@@ -4029,13 +3999,13 @@
         <v>108074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
@@ -4044,13 +4014,13 @@
         <v>215278</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4088,13 @@
         <v>37829</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -4133,13 +4103,13 @@
         <v>42020</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4148,13 +4118,13 @@
         <v>79849</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4139,13 @@
         <v>520425</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4184,13 +4154,13 @@
         <v>517459</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4199,13 +4169,13 @@
         <v>1037884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,7 +4231,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4273,13 +4243,13 @@
         <v>51743</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -4288,13 +4258,13 @@
         <v>74802</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -4303,13 +4273,13 @@
         <v>126545</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4294,13 @@
         <v>970688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>911</v>
@@ -4339,13 +4309,13 @@
         <v>968111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>94</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>1814</v>
@@ -4354,13 +4324,13 @@
         <v>1938799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,7 +4386,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4428,13 +4398,13 @@
         <v>23940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4443,13 +4413,13 @@
         <v>40474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4458,13 +4428,13 @@
         <v>64414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4449,13 @@
         <v>735612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>701</v>
@@ -4494,13 +4464,13 @@
         <v>744537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>1375</v>
@@ -4509,13 +4479,13 @@
         <v>1480149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,7 +4541,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4583,13 +4553,13 @@
         <v>65640</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -4598,13 +4568,13 @@
         <v>82132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -4613,13 +4583,13 @@
         <v>147772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4604,13 @@
         <v>871927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>888</v>
@@ -4649,13 +4619,13 @@
         <v>961647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>1757</v>
@@ -4664,13 +4634,13 @@
         <v>1833574</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4708,13 @@
         <v>188494</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
         <v>217</v>
@@ -4753,13 +4723,13 @@
         <v>244714</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>396</v>
@@ -4768,13 +4738,13 @@
         <v>433208</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4759,13 @@
         <v>3205856</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>3121</v>
@@ -4804,13 +4774,13 @@
         <v>3299828</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>6173</v>
@@ -4819,13 +4789,13 @@
         <v>6505684</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4851,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4902,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4530AF6-3F59-4125-8E77-20358FACCAE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7FD4EE-13DF-4A2A-BC0A-41220E652343}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4919,7 +4889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,13 +4996,13 @@
         <v>20404</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5041,13 +5011,13 @@
         <v>14918</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -5056,13 +5026,13 @@
         <v>35321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5047,13 @@
         <v>81578</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>210</v>
@@ -5092,13 +5062,13 @@
         <v>115815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>303</v>
@@ -5107,13 +5077,13 @@
         <v>197394</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5151,13 @@
         <v>63954</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>125</v>
@@ -5196,13 +5166,13 @@
         <v>66584</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>207</v>
@@ -5211,13 +5181,13 @@
         <v>130538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5202,13 @@
         <v>485869</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>873</v>
@@ -5247,13 +5217,13 @@
         <v>553383</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>1403</v>
@@ -5262,13 +5232,13 @@
         <v>1039252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,7 +5294,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5336,13 +5306,13 @@
         <v>126232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>232</v>
@@ -5351,13 +5321,13 @@
         <v>144746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>368</v>
@@ -5366,13 +5336,13 @@
         <v>270978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5357,13 @@
         <v>913016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>1285</v>
@@ -5402,13 +5372,13 @@
         <v>915333</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>2113</v>
@@ -5417,13 +5387,13 @@
         <v>1828349</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,7 +5449,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5491,13 +5461,13 @@
         <v>96871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -5506,13 +5476,13 @@
         <v>202029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>237</v>
@@ -5521,13 +5491,13 @@
         <v>298899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5512,13 @@
         <v>631901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>902</v>
@@ -5557,13 +5527,13 @@
         <v>672342</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>1486</v>
@@ -5572,13 +5542,13 @@
         <v>1304243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,7 +5604,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5646,13 +5616,13 @@
         <v>79560</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -5661,13 +5631,13 @@
         <v>105455</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>251</v>
@@ -5676,13 +5646,13 @@
         <v>185015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5667,13 @@
         <v>885843</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>1403</v>
@@ -5712,13 +5682,13 @@
         <v>1044977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>2317</v>
@@ -5727,13 +5697,13 @@
         <v>1930820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5771,13 @@
         <v>387020</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>694</v>
@@ -5816,13 +5786,13 @@
         <v>533731</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>1121</v>
@@ -5831,13 +5801,13 @@
         <v>920751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5822,13 @@
         <v>2998208</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>4673</v>
@@ -5867,28 +5837,28 @@
         <v>3301850</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>7622</v>
       </c>
       <c r="N20" s="7">
-        <v>6300057</v>
+        <v>6300058</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,7 +5900,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5944,7 +5914,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_fisi_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{360E5A7D-ED89-4C55-BE62-6894334B3400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6180B13F-92F8-4282-87C1-031FE0C52F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5FC1BBC6-F8B2-4013-9618-C04E4324CF7E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{425A8BC1-6802-4B8A-B9B2-983319E72EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1210 +68,1027 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>93,15%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
 </sst>
 </file>
@@ -1683,8 +1500,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158750A3-EC69-4E86-9081-8547927E5AEC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7769DB-5E3A-4D51-94C7-746980564B13}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1801,10 +1618,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>3306</v>
+        <v>19475</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1816,10 +1633,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>5100</v>
+        <v>34292</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1831,10 +1648,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>8406</v>
+        <v>53766</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1852,10 +1669,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>663</v>
       </c>
       <c r="D5" s="7">
-        <v>112052</v>
+        <v>674537</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1867,10 +1684,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>123</v>
+        <v>662</v>
       </c>
       <c r="I5" s="7">
-        <v>107655</v>
+        <v>654059</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1882,10 +1699,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>1325</v>
       </c>
       <c r="N5" s="7">
-        <v>219707</v>
+        <v>1328597</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1903,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1918,10 +1735,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1933,10 +1750,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1956,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>16168</v>
+        <v>53011</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1971,10 +1788,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>28239</v>
+        <v>55863</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1986,19 +1803,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="N7" s="7">
-        <v>44407</v>
+        <v>108874</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,49 +1824,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>561</v>
+        <v>846</v>
       </c>
       <c r="D8" s="7">
-        <v>562486</v>
+        <v>908789</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>540</v>
+        <v>857</v>
       </c>
       <c r="I8" s="7">
-        <v>547357</v>
+        <v>912530</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1101</v>
+        <v>1703</v>
       </c>
       <c r="N8" s="7">
-        <v>1109843</v>
+        <v>1821319</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2073,10 +1890,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2088,10 +1905,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2105,55 +1922,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>53011</v>
+        <v>39429</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>55863</v>
+        <v>40573</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>108874</v>
+        <v>80003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,49 +1979,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>846</v>
+        <v>603</v>
       </c>
       <c r="D11" s="7">
-        <v>908789</v>
+        <v>639080</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>857</v>
+        <v>657</v>
       </c>
       <c r="I11" s="7">
-        <v>912530</v>
+        <v>643268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1703</v>
+        <v>1260</v>
       </c>
       <c r="N11" s="7">
-        <v>1821319</v>
+        <v>1282347</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2228,10 +2045,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2243,10 +2060,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2260,55 +2077,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>39429</v>
+        <v>51696</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I13" s="7">
-        <v>40573</v>
+        <v>80801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
+        <v>130</v>
+      </c>
+      <c r="N13" s="7">
+        <v>132497</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="N13" s="7">
-        <v>80003</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,49 +2134,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>603</v>
+        <v>940</v>
       </c>
       <c r="D14" s="7">
-        <v>639080</v>
+        <v>890526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
-        <v>657</v>
+        <v>921</v>
       </c>
       <c r="I14" s="7">
-        <v>643268</v>
+        <v>957811</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1260</v>
+        <v>1861</v>
       </c>
       <c r="N14" s="7">
-        <v>1282347</v>
+        <v>1848337</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2383,10 +2200,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2398,10 +2215,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2415,49 +2232,49 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="D16" s="7">
-        <v>51696</v>
+        <v>163611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="I16" s="7">
-        <v>79898</v>
+        <v>211529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="N16" s="7">
-        <v>131595</v>
+        <v>375140</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>91</v>
@@ -2472,10 +2289,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>940</v>
+        <v>3052</v>
       </c>
       <c r="D17" s="7">
-        <v>890526</v>
+        <v>3112932</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2484,13 +2301,13 @@
         <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
-        <v>922</v>
+        <v>3097</v>
       </c>
       <c r="I17" s="7">
-        <v>958714</v>
+        <v>3167668</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>95</v>
@@ -2502,19 +2319,19 @@
         <v>97</v>
       </c>
       <c r="M17" s="7">
-        <v>1862</v>
+        <v>6149</v>
       </c>
       <c r="N17" s="7">
-        <v>1849239</v>
+        <v>6280601</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,10 +2340,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2538,10 +2355,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2553,10 +2370,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2569,171 +2386,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>162</v>
-      </c>
-      <c r="D19" s="7">
-        <v>163611</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="7">
-        <v>198</v>
-      </c>
-      <c r="I19" s="7">
-        <v>209674</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="7">
-        <v>360</v>
-      </c>
-      <c r="N19" s="7">
-        <v>373284</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3052</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3112933</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3099</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3169524</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6151</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6282456</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2746,8 +2407,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3F758B-10F3-4F91-BEAB-FAF079882A56}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3189D32B-88C3-450E-B806-F38BC51A5183}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2763,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2864,49 +2525,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>7362</v>
+        <v>40336</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>13245</v>
+        <v>55618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="N4" s="7">
-        <v>20607</v>
+        <v>95954</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,49 +2576,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>636</v>
+      </c>
+      <c r="D5" s="7">
+        <v>663133</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="7">
+        <v>597</v>
+      </c>
+      <c r="I5" s="7">
+        <v>641432</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="7">
-        <v>108403</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="7">
-        <v>87</v>
-      </c>
-      <c r="I5" s="7">
-        <v>98660</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>201</v>
+        <v>1233</v>
       </c>
       <c r="N5" s="7">
-        <v>207063</v>
+        <v>1304565</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2627,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2981,10 +2642,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2996,10 +2657,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3019,49 +2680,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>32974</v>
+        <v>82150</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>42373</v>
+        <v>102689</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="N7" s="7">
-        <v>75347</v>
+        <v>184839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,49 +2731,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>522</v>
+        <v>863</v>
       </c>
       <c r="D8" s="7">
-        <v>554730</v>
+        <v>935797</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
-        <v>510</v>
+        <v>847</v>
       </c>
       <c r="I8" s="7">
-        <v>542772</v>
+        <v>929495</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
-        <v>1032</v>
+        <v>1710</v>
       </c>
       <c r="N8" s="7">
-        <v>1097502</v>
+        <v>1865292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3136,10 +2797,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3151,10 +2812,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3168,55 +2829,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>82150</v>
+        <v>56294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>102689</v>
+        <v>64707</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="N10" s="7">
-        <v>184839</v>
+        <v>121000</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,49 +2886,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>863</v>
+        <v>637</v>
       </c>
       <c r="D11" s="7">
-        <v>935797</v>
+        <v>701329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
-        <v>847</v>
+        <v>649</v>
       </c>
       <c r="I11" s="7">
-        <v>929495</v>
+        <v>712467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
-        <v>1710</v>
+        <v>1286</v>
       </c>
       <c r="N11" s="7">
-        <v>1865292</v>
+        <v>1413797</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3291,10 +2952,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3306,10 +2967,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3323,55 +2984,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>56294</v>
+        <v>71725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="I13" s="7">
-        <v>64707</v>
+        <v>100339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="N13" s="7">
-        <v>121000</v>
+        <v>172064</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,49 +3041,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>637</v>
+        <v>846</v>
       </c>
       <c r="D14" s="7">
-        <v>701329</v>
+        <v>876014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
-        <v>649</v>
+        <v>909</v>
       </c>
       <c r="I14" s="7">
-        <v>712467</v>
+        <v>951562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
-        <v>1286</v>
+        <v>1755</v>
       </c>
       <c r="N14" s="7">
-        <v>1413797</v>
+        <v>1827576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3446,10 +3107,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3461,10 +3122,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3478,55 +3139,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="D16" s="7">
-        <v>71725</v>
+        <v>250504</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
-        <v>94</v>
+        <v>296</v>
       </c>
       <c r="I16" s="7">
-        <v>100339</v>
+        <v>323353</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
-        <v>158</v>
+        <v>523</v>
       </c>
       <c r="N16" s="7">
-        <v>172064</v>
+        <v>573858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,49 +3196,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>846</v>
+        <v>2982</v>
       </c>
       <c r="D17" s="7">
-        <v>876014</v>
+        <v>3176275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
-        <v>909</v>
+        <v>3002</v>
       </c>
       <c r="I17" s="7">
-        <v>951562</v>
+        <v>3234956</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
-        <v>1755</v>
+        <v>5984</v>
       </c>
       <c r="N17" s="7">
-        <v>1827576</v>
+        <v>6411230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3601,10 +3262,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3616,10 +3277,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3632,171 +3293,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>227</v>
-      </c>
-      <c r="D19" s="7">
-        <v>250504</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="7">
-        <v>296</v>
-      </c>
-      <c r="I19" s="7">
-        <v>323353</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M19" s="7">
-        <v>523</v>
-      </c>
-      <c r="N19" s="7">
-        <v>573858</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2982</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3176275</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3002</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3234956</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5984</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6411230</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3809,8 +3314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D424AF3-E5FE-4FA0-B0C2-60C38503D844}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC9067D-357A-4C48-8755-64F2F04E6B63}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3826,7 +3331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3927,49 +3432,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>9341</v>
+        <v>47171</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>5286</v>
+        <v>47306</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="N4" s="7">
-        <v>14628</v>
+        <v>94476</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,49 +3483,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>606</v>
       </c>
       <c r="D5" s="7">
-        <v>107205</v>
+        <v>627629</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
-        <v>111</v>
+        <v>621</v>
       </c>
       <c r="I5" s="7">
-        <v>108074</v>
+        <v>625533</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
-        <v>215</v>
+        <v>1227</v>
       </c>
       <c r="N5" s="7">
-        <v>215278</v>
+        <v>1253163</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4044,10 +3549,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4059,10 +3564,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4082,49 +3587,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>37829</v>
+        <v>51743</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>42020</v>
+        <v>74802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="N7" s="7">
-        <v>79849</v>
+        <v>126545</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,49 +3638,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>502</v>
+        <v>903</v>
       </c>
       <c r="D8" s="7">
-        <v>520425</v>
+        <v>970688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
-        <v>510</v>
+        <v>911</v>
       </c>
       <c r="I8" s="7">
-        <v>517459</v>
+        <v>968111</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
-        <v>1012</v>
+        <v>1814</v>
       </c>
       <c r="N8" s="7">
-        <v>1037884</v>
+        <v>1938799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4199,10 +3704,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4214,10 +3719,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4231,55 +3736,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>51743</v>
+        <v>23940</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>74802</v>
+        <v>40474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>126545</v>
+        <v>64414</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,49 +3793,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>903</v>
+        <v>674</v>
       </c>
       <c r="D11" s="7">
-        <v>970688</v>
+        <v>735612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
-        <v>911</v>
+        <v>701</v>
       </c>
       <c r="I11" s="7">
-        <v>968111</v>
+        <v>744537</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
-        <v>1814</v>
+        <v>1375</v>
       </c>
       <c r="N11" s="7">
-        <v>1938799</v>
+        <v>1480149</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4354,10 +3859,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4369,10 +3874,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4386,55 +3891,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>23940</v>
+        <v>65640</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>40474</v>
+        <v>82132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="N13" s="7">
-        <v>64414</v>
+        <v>147772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,49 +3948,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>674</v>
+        <v>869</v>
       </c>
       <c r="D14" s="7">
-        <v>735612</v>
+        <v>871927</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>701</v>
+        <v>888</v>
       </c>
       <c r="I14" s="7">
-        <v>744537</v>
+        <v>961647</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>1375</v>
+        <v>1757</v>
       </c>
       <c r="N14" s="7">
-        <v>1480149</v>
+        <v>1833574</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,10 +3999,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4509,10 +4014,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4524,10 +4029,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4541,55 +4046,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="D16" s="7">
-        <v>65640</v>
+        <v>188494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="I16" s="7">
-        <v>82132</v>
+        <v>244714</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="N16" s="7">
-        <v>147772</v>
+        <v>433208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,49 +4103,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>869</v>
+        <v>3052</v>
       </c>
       <c r="D17" s="7">
-        <v>871927</v>
+        <v>3205856</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
-        <v>888</v>
+        <v>3121</v>
       </c>
       <c r="I17" s="7">
-        <v>961647</v>
+        <v>3299828</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
-        <v>1757</v>
+        <v>6173</v>
       </c>
       <c r="N17" s="7">
-        <v>1833574</v>
+        <v>6505684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,10 +4154,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4664,10 +4169,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4679,10 +4184,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4695,171 +4200,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>179</v>
-      </c>
-      <c r="D19" s="7">
-        <v>188494</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H19" s="7">
-        <v>217</v>
-      </c>
-      <c r="I19" s="7">
-        <v>244714</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M19" s="7">
-        <v>396</v>
-      </c>
-      <c r="N19" s="7">
-        <v>433208</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3052</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3205856</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3121</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3299828</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6173</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6505684</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4872,8 +4221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7FD4EE-13DF-4A2A-BC0A-41220E652343}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0830D8F-7EA0-481B-8C4A-9DD65ABA25E7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4889,7 +4238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4990,49 +4339,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D4" s="7">
-        <v>20404</v>
+        <v>81254</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="I4" s="7">
-        <v>14918</v>
+        <v>75702</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>265</v>
       </c>
       <c r="N4" s="7">
-        <v>35321</v>
+        <v>156956</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,49 +4390,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>93</v>
+        <v>623</v>
       </c>
       <c r="D5" s="7">
-        <v>81578</v>
+        <v>554187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
-        <v>210</v>
+        <v>1083</v>
       </c>
       <c r="I5" s="7">
-        <v>115815</v>
+        <v>649628</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
-        <v>303</v>
+        <v>1706</v>
       </c>
       <c r="N5" s="7">
-        <v>197394</v>
+        <v>1203816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,10 +4441,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5107,10 +4456,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5122,10 +4471,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5145,49 +4494,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7">
-        <v>63954</v>
+        <v>116030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="I7" s="7">
-        <v>66584</v>
+        <v>128812</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7">
-        <v>207</v>
+        <v>361</v>
       </c>
       <c r="N7" s="7">
-        <v>130538</v>
+        <v>244842</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,49 +4545,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>530</v>
+        <v>831</v>
       </c>
       <c r="D8" s="7">
-        <v>485869</v>
+        <v>1076834</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="H8" s="7">
-        <v>873</v>
+        <v>1289</v>
       </c>
       <c r="I8" s="7">
-        <v>553383</v>
+        <v>829839</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
-        <v>1403</v>
+        <v>2120</v>
       </c>
       <c r="N8" s="7">
-        <v>1039252</v>
+        <v>1906674</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,10 +4596,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5262,10 +4611,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5277,10 +4626,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5294,55 +4643,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7">
-        <v>126232</v>
+        <v>88974</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="I10" s="7">
-        <v>144746</v>
+        <v>286809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="N10" s="7">
-        <v>270978</v>
+        <v>375783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,49 +4700,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>828</v>
+        <v>586</v>
       </c>
       <c r="D11" s="7">
-        <v>913016</v>
+        <v>615706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="H11" s="7">
-        <v>1285</v>
+        <v>906</v>
       </c>
       <c r="I11" s="7">
-        <v>915333</v>
+        <v>646557</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="M11" s="7">
-        <v>2113</v>
+        <v>1492</v>
       </c>
       <c r="N11" s="7">
-        <v>1828349</v>
+        <v>1262263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,10 +4751,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5417,10 +4766,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5432,10 +4781,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5449,7 +4798,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5458,46 +4807,46 @@
         <v>92</v>
       </c>
       <c r="D13" s="7">
-        <v>96871</v>
+        <v>75733</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I13" s="7">
-        <v>202029</v>
+        <v>92787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="N13" s="7">
-        <v>298899</v>
+        <v>168520</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,49 +4855,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>584</v>
+        <v>914</v>
       </c>
       <c r="D14" s="7">
-        <v>631901</v>
+        <v>851098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
-        <v>902</v>
+        <v>1405</v>
       </c>
       <c r="I14" s="7">
-        <v>672342</v>
+        <v>1002145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
-        <v>1486</v>
+        <v>2319</v>
       </c>
       <c r="N14" s="7">
-        <v>1304243</v>
+        <v>1853243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5572,10 +4921,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5587,10 +4936,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5604,55 +4953,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>422</v>
       </c>
       <c r="D16" s="7">
-        <v>79560</v>
+        <v>361991</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
-        <v>159</v>
+        <v>684</v>
       </c>
       <c r="I16" s="7">
-        <v>105455</v>
+        <v>584109</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
-        <v>251</v>
+        <v>1106</v>
       </c>
       <c r="N16" s="7">
-        <v>185015</v>
+        <v>946100</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,49 +5010,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>914</v>
+        <v>2954</v>
       </c>
       <c r="D17" s="7">
-        <v>885843</v>
+        <v>3097826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
-        <v>1403</v>
+        <v>4683</v>
       </c>
       <c r="I17" s="7">
-        <v>1044977</v>
+        <v>3128171</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
-        <v>2317</v>
+        <v>7637</v>
       </c>
       <c r="N17" s="7">
-        <v>1930820</v>
+        <v>6225997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,10 +5061,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5727,10 +5076,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5742,10 +5091,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5758,171 +5107,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>427</v>
-      </c>
-      <c r="D19" s="7">
-        <v>387020</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="H19" s="7">
-        <v>694</v>
-      </c>
-      <c r="I19" s="7">
-        <v>533731</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1121</v>
-      </c>
-      <c r="N19" s="7">
-        <v>920751</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2949</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2998208</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4673</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3301850</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7622</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6300058</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
